--- a/data/pca/factorExposure/factorExposure_2018-02-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005314881839319476</v>
+        <v>0.008248942142713885</v>
       </c>
       <c r="C2">
-        <v>-0.007214540354386694</v>
+        <v>0.02183735588722803</v>
       </c>
       <c r="D2">
-        <v>-0.02522643202520185</v>
+        <v>-0.02540288757544088</v>
       </c>
       <c r="E2">
-        <v>0.03319231874023398</v>
+        <v>-0.01202258040745841</v>
       </c>
       <c r="F2">
-        <v>0.05896480389929677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.002334649510053749</v>
+      </c>
+      <c r="G2">
+        <v>-0.002407783498694979</v>
+      </c>
+      <c r="H2">
+        <v>0.03080030037163072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.07160060869008297</v>
+        <v>0.0515125092676136</v>
       </c>
       <c r="C3">
-        <v>-0.003350104152531249</v>
+        <v>0.07312937054544032</v>
       </c>
       <c r="D3">
-        <v>0.001902305178955671</v>
+        <v>-0.00886732386111329</v>
       </c>
       <c r="E3">
-        <v>0.1331522739697777</v>
+        <v>-0.05654653789772535</v>
       </c>
       <c r="F3">
-        <v>0.2627167213401352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.04099902071815139</v>
+      </c>
+      <c r="G3">
+        <v>-0.04452093972051827</v>
+      </c>
+      <c r="H3">
+        <v>0.1156740162125975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03772951149203078</v>
+        <v>0.0344896595498153</v>
       </c>
       <c r="C4">
-        <v>0.00966324066356836</v>
+        <v>0.06373375094395105</v>
       </c>
       <c r="D4">
-        <v>-0.02838500096398586</v>
+        <v>-0.01968945480243906</v>
       </c>
       <c r="E4">
-        <v>-0.01019493300332805</v>
+        <v>0.006120639934993355</v>
       </c>
       <c r="F4">
-        <v>0.05333548390399458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02375335156390709</v>
+      </c>
+      <c r="G4">
+        <v>-0.0447171490298775</v>
+      </c>
+      <c r="H4">
+        <v>0.03216127017999421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04444825095096838</v>
+        <v>0.01789835874746199</v>
       </c>
       <c r="C6">
-        <v>-0.004938252988541786</v>
+        <v>0.0610331462613822</v>
       </c>
       <c r="D6">
-        <v>-0.03490669394962384</v>
+        <v>-0.01467157736191592</v>
       </c>
       <c r="E6">
-        <v>-0.02463313323955403</v>
+        <v>0.008553171586586982</v>
       </c>
       <c r="F6">
-        <v>0.04049973326761265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.006117845141670832</v>
+      </c>
+      <c r="G6">
+        <v>-0.02938045090762952</v>
+      </c>
+      <c r="H6">
+        <v>0.03519108874797885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03514937156669837</v>
+        <v>0.002646799849692817</v>
       </c>
       <c r="C7">
-        <v>0.06830636685798175</v>
+        <v>0.03419141361258861</v>
       </c>
       <c r="D7">
-        <v>-0.006023734366101067</v>
+        <v>-0.01202274644948799</v>
       </c>
       <c r="E7">
-        <v>-0.005141582158236797</v>
+        <v>0.01942394009100525</v>
       </c>
       <c r="F7">
-        <v>0.01982631296448057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.07380134740294794</v>
+      </c>
+      <c r="G7">
+        <v>-0.008220664645197547</v>
+      </c>
+      <c r="H7">
+        <v>0.01784945843071808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.001572196082423561</v>
+        <v>-0.00764919387322892</v>
       </c>
       <c r="C8">
-        <v>0.008914250800771977</v>
+        <v>0.0008538905170911574</v>
       </c>
       <c r="D8">
-        <v>-0.02798151876969949</v>
+        <v>-0.002186201619039225</v>
       </c>
       <c r="E8">
-        <v>-0.002290779284707565</v>
+        <v>-0.003741550540683908</v>
       </c>
       <c r="F8">
-        <v>0.05042060196710352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.016240143200025</v>
+      </c>
+      <c r="G8">
+        <v>-0.0145299830361908</v>
+      </c>
+      <c r="H8">
+        <v>0.01347009618815233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02972636685337163</v>
+        <v>0.0148080359953388</v>
       </c>
       <c r="C9">
-        <v>0.007233907218670284</v>
+        <v>0.04445237094001456</v>
       </c>
       <c r="D9">
-        <v>-0.02843747797759647</v>
+        <v>-0.01427555650224633</v>
       </c>
       <c r="E9">
-        <v>0.01637842171433284</v>
+        <v>0.002333155617821642</v>
       </c>
       <c r="F9">
-        <v>0.0575805320169652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0207448513622758</v>
+      </c>
+      <c r="G9">
+        <v>-0.0144075097854915</v>
+      </c>
+      <c r="H9">
+        <v>0.03477895325958393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04952250503195357</v>
+        <v>0.1264717955754324</v>
       </c>
       <c r="C10">
-        <v>-0.005091958898504705</v>
+        <v>-0.1543319096420881</v>
       </c>
       <c r="D10">
-        <v>0.1563311138376327</v>
+        <v>0.02347239370142684</v>
       </c>
       <c r="E10">
-        <v>0.08045261463487209</v>
+        <v>-0.02828094040189189</v>
       </c>
       <c r="F10">
-        <v>0.006928420891907801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03520505282531854</v>
+      </c>
+      <c r="G10">
+        <v>0.0262188648280886</v>
+      </c>
+      <c r="H10">
+        <v>-0.001426193043273959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02901003337818068</v>
+        <v>0.01282983472019265</v>
       </c>
       <c r="C11">
-        <v>-0.007483297937656157</v>
+        <v>0.04658219863819271</v>
       </c>
       <c r="D11">
-        <v>-0.039020085384948</v>
+        <v>-0.0004107730469493803</v>
       </c>
       <c r="E11">
-        <v>-0.0186657131067953</v>
+        <v>0.009115992851277089</v>
       </c>
       <c r="F11">
-        <v>0.02215176332388915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.001042374632995345</v>
+      </c>
+      <c r="G11">
+        <v>-0.01182353114411776</v>
+      </c>
+      <c r="H11">
+        <v>0.03840492943831587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03716777009687015</v>
+        <v>0.01617844102208588</v>
       </c>
       <c r="C12">
-        <v>-0.002458369804114076</v>
+        <v>0.04322896110731472</v>
       </c>
       <c r="D12">
-        <v>-0.0335025430083614</v>
+        <v>-0.00450777129295961</v>
       </c>
       <c r="E12">
-        <v>-0.03056070492649989</v>
+        <v>0.01450728347320569</v>
       </c>
       <c r="F12">
-        <v>0.003954331186523422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01347847805000632</v>
+      </c>
+      <c r="G12">
+        <v>-0.006475377864516496</v>
+      </c>
+      <c r="H12">
+        <v>0.01599686844823758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01436669694352966</v>
+        <v>0.01093592634854124</v>
       </c>
       <c r="C13">
-        <v>-0.01183006794334954</v>
+        <v>0.02025970528224314</v>
       </c>
       <c r="D13">
-        <v>-0.002264176747468674</v>
+        <v>-0.02168167182513983</v>
       </c>
       <c r="E13">
-        <v>0.01626171613517812</v>
+        <v>-0.0141326817605441</v>
       </c>
       <c r="F13">
-        <v>0.05474245838139723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.002821902800120851</v>
+      </c>
+      <c r="G13">
+        <v>-0.02804403733204943</v>
+      </c>
+      <c r="H13">
+        <v>0.04895273488558572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01947735998092161</v>
+        <v>0.001981864496651922</v>
       </c>
       <c r="C14">
-        <v>0.01468537332593</v>
+        <v>0.01837120655450358</v>
       </c>
       <c r="D14">
-        <v>-0.008241396187425714</v>
+        <v>-0.007592748974141449</v>
       </c>
       <c r="E14">
-        <v>-0.002231651734910162</v>
+        <v>0.007535685940002799</v>
       </c>
       <c r="F14">
-        <v>0.04093167947621344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03024314992420283</v>
+      </c>
+      <c r="G14">
+        <v>-0.01062002622477347</v>
+      </c>
+      <c r="H14">
+        <v>0.00955529232847557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02612078424043921</v>
+        <v>0.01248280682820965</v>
       </c>
       <c r="C16">
-        <v>-0.00308268517069266</v>
+        <v>0.03932098902716227</v>
       </c>
       <c r="D16">
-        <v>-0.03883411494141973</v>
+        <v>-0.0002501594190504346</v>
       </c>
       <c r="E16">
-        <v>-0.01838524882423925</v>
+        <v>0.006939358251893406</v>
       </c>
       <c r="F16">
-        <v>0.02482410865743989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.007903734650732547</v>
+      </c>
+      <c r="G16">
+        <v>-0.01130852491699868</v>
+      </c>
+      <c r="H16">
+        <v>0.02565064578847396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02854432770207855</v>
+        <v>0.01430745538163125</v>
       </c>
       <c r="C19">
-        <v>-0.00451400381817737</v>
+        <v>0.03888578714768919</v>
       </c>
       <c r="D19">
-        <v>-0.02821198127217077</v>
+        <v>-0.01236183620187463</v>
       </c>
       <c r="E19">
-        <v>-0.01426703419613409</v>
+        <v>-0.01590959476081762</v>
       </c>
       <c r="F19">
-        <v>0.08095846801838713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01954390479546035</v>
+      </c>
+      <c r="G19">
+        <v>-0.03954195172417502</v>
+      </c>
+      <c r="H19">
+        <v>0.04488397291733234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007139442160197602</v>
+        <v>-0.001441759922944265</v>
       </c>
       <c r="C20">
-        <v>0.01001894099737243</v>
+        <v>0.01791445319803948</v>
       </c>
       <c r="D20">
-        <v>0.0006839988152717104</v>
+        <v>-0.01146494697998419</v>
       </c>
       <c r="E20">
-        <v>0.006479053389338955</v>
+        <v>-0.009491319548018805</v>
       </c>
       <c r="F20">
-        <v>0.03447108751792329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01594055613381826</v>
+      </c>
+      <c r="G20">
+        <v>-0.02076416338624347</v>
+      </c>
+      <c r="H20">
+        <v>0.02096412105020706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03789788420351766</v>
+        <v>0.002859557287432277</v>
       </c>
       <c r="C21">
-        <v>0.0189748163965658</v>
+        <v>0.01776860222814207</v>
       </c>
       <c r="D21">
-        <v>-0.01990132068753246</v>
+        <v>-0.01439498908616222</v>
       </c>
       <c r="E21">
-        <v>0.0009272122781584038</v>
+        <v>-0.01312926028125205</v>
       </c>
       <c r="F21">
-        <v>0.03368556067055595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.03919090349612468</v>
+      </c>
+      <c r="G21">
+        <v>-0.00973660757827712</v>
+      </c>
+      <c r="H21">
+        <v>0.03198422250724222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02424604881400131</v>
+        <v>0.007101376344671523</v>
       </c>
       <c r="C24">
-        <v>-0.003488755050227756</v>
+        <v>0.03904275604759099</v>
       </c>
       <c r="D24">
-        <v>-0.02869836261778324</v>
+        <v>-0.005332243634273677</v>
       </c>
       <c r="E24">
-        <v>-0.0162085322028384</v>
+        <v>0.0123188739770118</v>
       </c>
       <c r="F24">
-        <v>0.02191007692056889</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.005198859160618729</v>
+      </c>
+      <c r="G24">
+        <v>-0.008420885868470746</v>
+      </c>
+      <c r="H24">
+        <v>0.03250155603832446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03625698916321045</v>
+        <v>0.02256785405029398</v>
       </c>
       <c r="C25">
-        <v>-0.005683823929808974</v>
+        <v>0.05000002958444167</v>
       </c>
       <c r="D25">
-        <v>-0.03074852133722171</v>
+        <v>-0.00873908751018395</v>
       </c>
       <c r="E25">
-        <v>-0.00903680715083165</v>
+        <v>0.0190605709822162</v>
       </c>
       <c r="F25">
-        <v>0.03456261036324969</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.009820221823877522</v>
+      </c>
+      <c r="G25">
+        <v>-0.01672708577421879</v>
+      </c>
+      <c r="H25">
+        <v>0.02812235687241173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01338897194406768</v>
+        <v>0.001733845006318593</v>
       </c>
       <c r="C26">
-        <v>0.007888004428374533</v>
+        <v>0.002475667802345146</v>
       </c>
       <c r="D26">
-        <v>-0.01270444498532004</v>
+        <v>-0.02314847457629416</v>
       </c>
       <c r="E26">
-        <v>0.02826096391258553</v>
+        <v>0.003147007465274073</v>
       </c>
       <c r="F26">
-        <v>0.03517651189442469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.02006658568716493</v>
+      </c>
+      <c r="G26">
+        <v>0.001184266221534056</v>
+      </c>
+      <c r="H26">
+        <v>0.01168242144157897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.009657759399974016</v>
+        <v>0.003567196384010749</v>
       </c>
       <c r="C27">
-        <v>0.004454155009817449</v>
+        <v>0.0006314252868285012</v>
       </c>
       <c r="D27">
-        <v>0.00954017458188698</v>
+        <v>0.001000923902134355</v>
       </c>
       <c r="E27">
-        <v>-0.01052357501746773</v>
+        <v>0.0001078810395732192</v>
       </c>
       <c r="F27">
-        <v>0.01360281029256895</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.008466444346532011</v>
+      </c>
+      <c r="G27">
+        <v>-0.00544939138679447</v>
+      </c>
+      <c r="H27">
+        <v>-0.005087776865292618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08961496605218504</v>
+        <v>0.1764198557010669</v>
       </c>
       <c r="C28">
-        <v>-0.01370753635439237</v>
+        <v>-0.1942554345473004</v>
       </c>
       <c r="D28">
-        <v>0.2154870168455479</v>
+        <v>0.01815471988257403</v>
       </c>
       <c r="E28">
-        <v>0.1009121772399146</v>
+        <v>-0.02253719030960369</v>
       </c>
       <c r="F28">
-        <v>0.005665528196258108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04416878398970819</v>
+      </c>
+      <c r="G28">
+        <v>0.02326751128420628</v>
+      </c>
+      <c r="H28">
+        <v>-0.001698519350443469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02115742720658435</v>
+        <v>0.008652512949997743</v>
       </c>
       <c r="C29">
-        <v>0.01158620427802339</v>
+        <v>0.01827644180602851</v>
       </c>
       <c r="D29">
-        <v>-0.007755387812253271</v>
+        <v>-0.0062411798188994</v>
       </c>
       <c r="E29">
-        <v>-0.003469231790069837</v>
+        <v>0.007521364941498829</v>
       </c>
       <c r="F29">
-        <v>0.03866280174198877</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02578990294284209</v>
+      </c>
+      <c r="G29">
+        <v>-0.00989471558763582</v>
+      </c>
+      <c r="H29">
+        <v>0.001584059722432412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04367601046019124</v>
+        <v>0.02540761055073275</v>
       </c>
       <c r="C30">
-        <v>-0.05264692823807861</v>
+        <v>0.08685324673192935</v>
       </c>
       <c r="D30">
-        <v>-0.06004636548995454</v>
+        <v>-0.02461590104140021</v>
       </c>
       <c r="E30">
-        <v>0.005843452790018878</v>
+        <v>0.001384878607841482</v>
       </c>
       <c r="F30">
-        <v>0.0822366721880998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02675446157442582</v>
+      </c>
+      <c r="G30">
+        <v>-0.03573494771222865</v>
+      </c>
+      <c r="H30">
+        <v>0.05685792906177054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04765867697298704</v>
+        <v>0.03067759425282698</v>
       </c>
       <c r="C31">
-        <v>0.005454021413306841</v>
+        <v>0.02592310513627584</v>
       </c>
       <c r="D31">
-        <v>-0.01043611849096255</v>
+        <v>-0.001338699424166435</v>
       </c>
       <c r="E31">
-        <v>-0.01133069223906128</v>
+        <v>0.01041840873506867</v>
       </c>
       <c r="F31">
-        <v>0.02292339430467476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02545653462497025</v>
+      </c>
+      <c r="G31">
+        <v>0.008328803533442094</v>
+      </c>
+      <c r="H31">
+        <v>-0.01105875861458381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.008217613312953396</v>
+        <v>0.00392012201200204</v>
       </c>
       <c r="C32">
-        <v>0.03231189161999073</v>
+        <v>0.01265125416129801</v>
       </c>
       <c r="D32">
-        <v>-0.02735862032664952</v>
+        <v>0.007861274442499983</v>
       </c>
       <c r="E32">
-        <v>-0.01226429816484757</v>
+        <v>-0.002642305399150077</v>
       </c>
       <c r="F32">
-        <v>0.04800706578026751</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03234509629288641</v>
+      </c>
+      <c r="G32">
+        <v>-0.06054139979045738</v>
+      </c>
+      <c r="H32">
+        <v>0.06666106834096129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03822058017116517</v>
+        <v>0.01314601489145986</v>
       </c>
       <c r="C33">
-        <v>-0.02291899240976117</v>
+        <v>0.04218972584861631</v>
       </c>
       <c r="D33">
-        <v>-0.03687984934291898</v>
+        <v>-0.01229719381039629</v>
       </c>
       <c r="E33">
-        <v>0.01142619084768597</v>
+        <v>-0.007771927373216048</v>
       </c>
       <c r="F33">
-        <v>0.04938585948501217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.007014032035309891</v>
+      </c>
+      <c r="G33">
+        <v>0.00518928044719603</v>
+      </c>
+      <c r="H33">
+        <v>0.03686527867809895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02838944194640554</v>
+        <v>0.02456591423891591</v>
       </c>
       <c r="C34">
-        <v>0.005651004333446652</v>
+        <v>0.05020457513993871</v>
       </c>
       <c r="D34">
-        <v>-0.03783452543323121</v>
+        <v>0.007895345637586065</v>
       </c>
       <c r="E34">
-        <v>-0.02470996698556992</v>
+        <v>0.02398866380944555</v>
       </c>
       <c r="F34">
-        <v>0.02651463383016264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01251902858208572</v>
+      </c>
+      <c r="G34">
+        <v>-0.01574990645076455</v>
+      </c>
+      <c r="H34">
+        <v>0.03146897658125757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01503206645942699</v>
+        <v>0.006664253559137778</v>
       </c>
       <c r="C36">
-        <v>0.008753025711305217</v>
+        <v>0.0005090354845866384</v>
       </c>
       <c r="D36">
-        <v>-0.001927787839071876</v>
+        <v>-0.01029989804737484</v>
       </c>
       <c r="E36">
-        <v>0.00572962598705843</v>
+        <v>0.0003544522511819811</v>
       </c>
       <c r="F36">
-        <v>0.02469102278083154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01759509515852415</v>
+      </c>
+      <c r="G36">
+        <v>0.002321180934349425</v>
+      </c>
+      <c r="H36">
+        <v>0.007374087069260625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0216472937361097</v>
+        <v>0.02574777367202627</v>
       </c>
       <c r="C38">
-        <v>-0.001150729138638569</v>
+        <v>0.01757282424430867</v>
       </c>
       <c r="D38">
-        <v>0.00192388142344974</v>
+        <v>0.01017441037541475</v>
       </c>
       <c r="E38">
-        <v>0.02985959785130938</v>
+        <v>0.004983349906478111</v>
       </c>
       <c r="F38">
-        <v>0.03853049316594469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01559417262121116</v>
+      </c>
+      <c r="G38">
+        <v>-0.006510988078545718</v>
+      </c>
+      <c r="H38">
+        <v>0.01606538824800232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02361514875989376</v>
+        <v>-0.0006847533288730957</v>
       </c>
       <c r="C39">
-        <v>0.001869356031916881</v>
+        <v>0.08158428865271146</v>
       </c>
       <c r="D39">
-        <v>-0.05519048769499908</v>
+        <v>-0.01135475371050733</v>
       </c>
       <c r="E39">
-        <v>-0.00864762374510789</v>
+        <v>0.006819690387020475</v>
       </c>
       <c r="F39">
-        <v>0.05247975355418889</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.00408408314667056</v>
+      </c>
+      <c r="G39">
+        <v>-0.01815458143811424</v>
+      </c>
+      <c r="H39">
+        <v>0.06230085032095099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01503274119509365</v>
+        <v>0.01635617331584077</v>
       </c>
       <c r="C40">
-        <v>-0.03552223844793655</v>
+        <v>0.02429493254389074</v>
       </c>
       <c r="D40">
-        <v>-0.02109577013698612</v>
+        <v>-0.009192907567560362</v>
       </c>
       <c r="E40">
-        <v>-0.01534714671355249</v>
+        <v>0.001989799481654958</v>
       </c>
       <c r="F40">
-        <v>0.02558082053427382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02363867385858732</v>
+      </c>
+      <c r="G40">
+        <v>-0.02058101952998228</v>
+      </c>
+      <c r="H40">
+        <v>0.03486883623747798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01365374689545878</v>
+        <v>0.01196756935347598</v>
       </c>
       <c r="C41">
-        <v>0.003779923920193717</v>
+        <v>-0.01092046468354685</v>
       </c>
       <c r="D41">
-        <v>0.01144657561459885</v>
+        <v>-0.002200840175684273</v>
       </c>
       <c r="E41">
-        <v>0.01902139138485016</v>
+        <v>0.004032167550319089</v>
       </c>
       <c r="F41">
-        <v>8.730628184320212e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.013361338109211</v>
+      </c>
+      <c r="G41">
+        <v>0.01004061189785978</v>
+      </c>
+      <c r="H41">
+        <v>0.0001547779853030998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3008327028891744</v>
+        <v>0.07201658289451586</v>
       </c>
       <c r="C42">
-        <v>-0.1449925843655731</v>
+        <v>0.1731239112577413</v>
       </c>
       <c r="D42">
-        <v>-0.3962174931195836</v>
+        <v>-0.1237269093187468</v>
       </c>
       <c r="E42">
-        <v>0.6619160630936247</v>
+        <v>-0.1435516766495743</v>
       </c>
       <c r="F42">
-        <v>-0.4898172868068823</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.0653518839739063</v>
+      </c>
+      <c r="G42">
+        <v>0.9312883269660218</v>
+      </c>
+      <c r="H42">
+        <v>0.1897439541865818</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0164841434984256</v>
+        <v>0.01477812512076471</v>
       </c>
       <c r="C43">
-        <v>-0.0005414118810333751</v>
+        <v>-0.006419433646380389</v>
       </c>
       <c r="D43">
-        <v>0.009688058233176668</v>
+        <v>-0.002523738455698243</v>
       </c>
       <c r="E43">
-        <v>0.01591872984572074</v>
+        <v>0.001406430648479679</v>
       </c>
       <c r="F43">
-        <v>0.0146365095319655</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01143653400152932</v>
+      </c>
+      <c r="G43">
+        <v>0.006739918473768884</v>
+      </c>
+      <c r="H43">
+        <v>0.00634293422175917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01539890854249345</v>
+        <v>0.002998541946943844</v>
       </c>
       <c r="C44">
-        <v>0.01883415026473661</v>
+        <v>0.0417272308577915</v>
       </c>
       <c r="D44">
-        <v>-0.0204537024927946</v>
+        <v>-0.005888595469660482</v>
       </c>
       <c r="E44">
-        <v>0.02659442476065175</v>
+        <v>-0.006651375580218917</v>
       </c>
       <c r="F44">
-        <v>0.06923721026455482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02960887955223123</v>
+      </c>
+      <c r="G44">
+        <v>-0.008225163056186317</v>
+      </c>
+      <c r="H44">
+        <v>0.04933866869726542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01829117546901288</v>
+        <v>-0.0009396727935066287</v>
       </c>
       <c r="C46">
-        <v>0.003796595793137078</v>
+        <v>0.009430664539173805</v>
       </c>
       <c r="D46">
-        <v>-0.03793245285718142</v>
+        <v>-0.01140405938998948</v>
       </c>
       <c r="E46">
-        <v>-0.00169101676253157</v>
+        <v>-0.001800997263403156</v>
       </c>
       <c r="F46">
-        <v>0.06706337821008207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01911358625112802</v>
+      </c>
+      <c r="G46">
+        <v>-0.003080837427949144</v>
+      </c>
+      <c r="H46">
+        <v>0.006221572062898232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06990408439109873</v>
+        <v>0.04917854369567542</v>
       </c>
       <c r="C47">
-        <v>-0.01433559567018544</v>
+        <v>0.06054394545503682</v>
       </c>
       <c r="D47">
-        <v>-0.0118061664438173</v>
+        <v>0.006952614692985021</v>
       </c>
       <c r="E47">
-        <v>-0.02362472150921036</v>
+        <v>0.009811262965346016</v>
       </c>
       <c r="F47">
-        <v>-0.007349366855400601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01953954103513537</v>
+      </c>
+      <c r="G47">
+        <v>0.01415081980276574</v>
+      </c>
+      <c r="H47">
+        <v>-0.04289792878127362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02353535070408162</v>
+        <v>0.01042958340608902</v>
       </c>
       <c r="C48">
-        <v>0.003168899747728469</v>
+        <v>0.01219774181180482</v>
       </c>
       <c r="D48">
-        <v>-0.009417364902195071</v>
+        <v>-0.000699668403232638</v>
       </c>
       <c r="E48">
-        <v>0.001118365885021851</v>
+        <v>0.00251962655965638</v>
       </c>
       <c r="F48">
-        <v>0.0245005753555959</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01616321046636436</v>
+      </c>
+      <c r="G48">
+        <v>-0.0003477334396544744</v>
+      </c>
+      <c r="H48">
+        <v>0.008330235915366411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08334271118654565</v>
+        <v>0.05657419992223636</v>
       </c>
       <c r="C50">
-        <v>0.01306243380081319</v>
+        <v>0.05863256319951876</v>
       </c>
       <c r="D50">
-        <v>-0.03565653362351984</v>
+        <v>0.00590854382738968</v>
       </c>
       <c r="E50">
-        <v>-0.02280561097215685</v>
+        <v>0.01134891717971075</v>
       </c>
       <c r="F50">
-        <v>0.0237523818957923</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04861139322721342</v>
+      </c>
+      <c r="G50">
+        <v>0.009926089027584453</v>
+      </c>
+      <c r="H50">
+        <v>-0.03144507893512993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01117741154676624</v>
+        <v>0.005330293727539835</v>
       </c>
       <c r="C51">
-        <v>0.01072015566652779</v>
+        <v>0.01155964505629152</v>
       </c>
       <c r="D51">
-        <v>0.01278348646717398</v>
+        <v>-0.007042261886441273</v>
       </c>
       <c r="E51">
-        <v>0.03341218951035178</v>
+        <v>0.005500407926297988</v>
       </c>
       <c r="F51">
-        <v>0.07039539626486466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02599923281710873</v>
+      </c>
+      <c r="G51">
+        <v>-0.005819608378481211</v>
+      </c>
+      <c r="H51">
+        <v>0.03438028790156714</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1016216870222134</v>
+        <v>0.07162931135444382</v>
       </c>
       <c r="C53">
-        <v>-0.01726696890572621</v>
+        <v>0.09369601699616532</v>
       </c>
       <c r="D53">
-        <v>-0.03186528135184864</v>
+        <v>0.008223175824606155</v>
       </c>
       <c r="E53">
-        <v>-0.07051068084728054</v>
+        <v>0.03412046847127572</v>
       </c>
       <c r="F53">
-        <v>-0.01389191575125343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01672514232816745</v>
+      </c>
+      <c r="G53">
+        <v>0.01218000358566415</v>
+      </c>
+      <c r="H53">
+        <v>-0.051625134337024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02545444433179133</v>
+        <v>0.01957080624104698</v>
       </c>
       <c r="C54">
-        <v>0.01076059758402594</v>
+        <v>-0.001846493952412765</v>
       </c>
       <c r="D54">
-        <v>0.008324496802700612</v>
+        <v>0.005510881232539637</v>
       </c>
       <c r="E54">
-        <v>-0.006022187285065779</v>
+        <v>-0.002151744872211146</v>
       </c>
       <c r="F54">
-        <v>0.02693591794557087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02751421347402583</v>
+      </c>
+      <c r="G54">
+        <v>-0.005502693511082543</v>
+      </c>
+      <c r="H54">
+        <v>-0.001092326701124777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08444502749578511</v>
+        <v>0.05108935243037879</v>
       </c>
       <c r="C55">
-        <v>-0.01720016606638095</v>
+        <v>0.08369667928311744</v>
       </c>
       <c r="D55">
-        <v>-0.05873077835713702</v>
+        <v>0.005887447783088694</v>
       </c>
       <c r="E55">
-        <v>-0.04311038502722503</v>
+        <v>0.02087183534788534</v>
       </c>
       <c r="F55">
-        <v>-0.01435469843851482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0122676548735809</v>
+      </c>
+      <c r="G55">
+        <v>0.01921811351176573</v>
+      </c>
+      <c r="H55">
+        <v>-0.046022223272454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1343649378175774</v>
+        <v>0.1086464865909402</v>
       </c>
       <c r="C56">
-        <v>-0.03766193741725896</v>
+        <v>0.1293036056664245</v>
       </c>
       <c r="D56">
-        <v>-0.03789310906910628</v>
+        <v>0.01781072833477845</v>
       </c>
       <c r="E56">
-        <v>-0.1007330915179192</v>
+        <v>0.0387124934668804</v>
       </c>
       <c r="F56">
-        <v>-0.04518828253886314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.003672363846701811</v>
+      </c>
+      <c r="G56">
+        <v>0.009824495271951525</v>
+      </c>
+      <c r="H56">
+        <v>-0.09061706018970937</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04211656235306346</v>
+        <v>0.01855511062588366</v>
       </c>
       <c r="C57">
-        <v>-0.007694743273149709</v>
+        <v>0.0243301811646575</v>
       </c>
       <c r="D57">
-        <v>-0.02000065389013092</v>
+        <v>-0.02345318729858325</v>
       </c>
       <c r="E57">
-        <v>0.04377302340968842</v>
+        <v>-0.03029815322930583</v>
       </c>
       <c r="F57">
-        <v>0.04098807161081493</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02298571971824922</v>
+      </c>
+      <c r="G57">
+        <v>-0.01642084510229131</v>
+      </c>
+      <c r="H57">
+        <v>0.05111708898349875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.182250539585462</v>
+        <v>0.05903644344880134</v>
       </c>
       <c r="C58">
-        <v>-0.1559246240853166</v>
+        <v>0.1718805325263975</v>
       </c>
       <c r="D58">
-        <v>-0.2237784243209794</v>
+        <v>-0.01884380144624516</v>
       </c>
       <c r="E58">
-        <v>0.2063251818498139</v>
+        <v>-0.9514201104512412</v>
       </c>
       <c r="F58">
-        <v>0.6577619603117207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.05552005859562024</v>
+      </c>
+      <c r="G58">
+        <v>-0.1660457894270357</v>
+      </c>
+      <c r="H58">
+        <v>-0.08879261670893573</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08006903584076591</v>
+        <v>0.1995580319969016</v>
       </c>
       <c r="C59">
-        <v>-0.03891582686139772</v>
+        <v>-0.1765207387451715</v>
       </c>
       <c r="D59">
-        <v>0.1852685750737781</v>
+        <v>0.0261270777515537</v>
       </c>
       <c r="E59">
-        <v>0.07429800037944444</v>
+        <v>-0.02082352676784402</v>
       </c>
       <c r="F59">
-        <v>0.04553705970325898</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01071831419148001</v>
+      </c>
+      <c r="G59">
+        <v>-0.002758947027962584</v>
+      </c>
+      <c r="H59">
+        <v>0.01561466447267081</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1706183753684955</v>
+        <v>0.255228623642493</v>
       </c>
       <c r="C60">
-        <v>-0.082638161950511</v>
+        <v>0.1090049664845123</v>
       </c>
       <c r="D60">
-        <v>0.02451402259717696</v>
+        <v>0.01006711093043394</v>
       </c>
       <c r="E60">
-        <v>0.0414491503725793</v>
+        <v>0.06187945611750602</v>
       </c>
       <c r="F60">
-        <v>0.1091709852560455</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1227265935765266</v>
+      </c>
+      <c r="G60">
+        <v>-0.1534027593785178</v>
+      </c>
+      <c r="H60">
+        <v>0.3904943394835668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02740531842267553</v>
+        <v>0.01012448504228743</v>
       </c>
       <c r="C61">
-        <v>-0.002041338143010732</v>
+        <v>0.06442444394911395</v>
       </c>
       <c r="D61">
-        <v>-0.04411986101872314</v>
+        <v>-0.003893252822426104</v>
       </c>
       <c r="E61">
-        <v>-0.005362765999482586</v>
+        <v>0.009241110434515214</v>
       </c>
       <c r="F61">
-        <v>0.02568149437989263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.006601412314906886</v>
+      </c>
+      <c r="G61">
+        <v>-0.02109641535235772</v>
+      </c>
+      <c r="H61">
+        <v>0.04512796144716072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0180871134035097</v>
+        <v>0.006461498984444604</v>
       </c>
       <c r="C63">
-        <v>0.006696679041231567</v>
+        <v>0.02328910084955992</v>
       </c>
       <c r="D63">
-        <v>-0.01735675374411453</v>
+        <v>-0.00676337134622651</v>
       </c>
       <c r="E63">
-        <v>-0.006815641952066538</v>
+        <v>0.0169811904404741</v>
       </c>
       <c r="F63">
-        <v>0.01238859555941129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01957621364462461</v>
+      </c>
+      <c r="G63">
+        <v>-0.006275731879836311</v>
+      </c>
+      <c r="H63">
+        <v>0.00045651249397725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04223616269791258</v>
+        <v>0.03548163880312962</v>
       </c>
       <c r="C64">
-        <v>-0.0005185890939031507</v>
+        <v>0.04236042561286862</v>
       </c>
       <c r="D64">
-        <v>-0.02449878697849423</v>
+        <v>-0.002123989844901344</v>
       </c>
       <c r="E64">
-        <v>-0.006511675487192934</v>
+        <v>0.01924472580222363</v>
       </c>
       <c r="F64">
-        <v>0.02483967691704302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01002092587783658</v>
+      </c>
+      <c r="G64">
+        <v>0.006016166225148122</v>
+      </c>
+      <c r="H64">
+        <v>0.02443941384505836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04883783844269628</v>
+        <v>0.04791334057170751</v>
       </c>
       <c r="C65">
-        <v>-0.005353990646873115</v>
+        <v>0.08509293795674251</v>
       </c>
       <c r="D65">
-        <v>-0.03674781898433045</v>
+        <v>-0.01305763672648227</v>
       </c>
       <c r="E65">
-        <v>-0.03098495129092517</v>
+        <v>0.02393499575490979</v>
       </c>
       <c r="F65">
-        <v>0.03530636844770185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.008317847223333183</v>
+      </c>
+      <c r="G65">
+        <v>-0.04435050338752269</v>
+      </c>
+      <c r="H65">
+        <v>0.04624947354604175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04476890763119599</v>
+        <v>0.01151409119812053</v>
       </c>
       <c r="C66">
-        <v>-0.01742452928223343</v>
+        <v>0.1178708482484532</v>
       </c>
       <c r="D66">
-        <v>-0.06270799909830314</v>
+        <v>-0.009199909648211005</v>
       </c>
       <c r="E66">
-        <v>-0.04904674677733727</v>
+        <v>0.01266413755734847</v>
       </c>
       <c r="F66">
-        <v>0.05911901319995985</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.008642882798145266</v>
+      </c>
+      <c r="G66">
+        <v>-0.0444268588953967</v>
+      </c>
+      <c r="H66">
+        <v>0.06407828831946259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03515005351886101</v>
+        <v>0.04892617416388778</v>
       </c>
       <c r="C67">
-        <v>-0.006494395037195637</v>
+        <v>0.02669804849368355</v>
       </c>
       <c r="D67">
-        <v>0.01165339373461649</v>
+        <v>0.009735103707980886</v>
       </c>
       <c r="E67">
-        <v>0.01897878547299964</v>
+        <v>0.01126599941576669</v>
       </c>
       <c r="F67">
-        <v>0.02503917587188844</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0155802779194539</v>
+      </c>
+      <c r="G67">
+        <v>-0.01292234901657866</v>
+      </c>
+      <c r="H67">
+        <v>0.01218432062369728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0885023728450485</v>
+        <v>0.1952166016630592</v>
       </c>
       <c r="C68">
-        <v>-0.03475866724864667</v>
+        <v>-0.2208184493569083</v>
       </c>
       <c r="D68">
-        <v>0.2098448862453247</v>
+        <v>0.007104397717783864</v>
       </c>
       <c r="E68">
-        <v>0.08907108483669658</v>
+        <v>-0.03427827445200068</v>
       </c>
       <c r="F68">
-        <v>0.0181629613261391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02562169700877015</v>
+      </c>
+      <c r="G68">
+        <v>0.03673666805588224</v>
+      </c>
+      <c r="H68">
+        <v>-0.01978475601039696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06027062904106982</v>
+        <v>0.05268795207514817</v>
       </c>
       <c r="C69">
-        <v>-0.0149267022646618</v>
+        <v>0.06053539525918371</v>
       </c>
       <c r="D69">
-        <v>-0.01930771097199269</v>
+        <v>0.0117815483626767</v>
       </c>
       <c r="E69">
-        <v>-0.03127897688315102</v>
+        <v>0.02863582411669706</v>
       </c>
       <c r="F69">
-        <v>0.007263699145318442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.007955546653195419</v>
+      </c>
+      <c r="G69">
+        <v>-0.002229207630614116</v>
+      </c>
+      <c r="H69">
+        <v>-0.0139051697237023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08657237627214839</v>
+        <v>0.1757658238484908</v>
       </c>
       <c r="C71">
-        <v>-0.01992625398206857</v>
+        <v>-0.1795853549114444</v>
       </c>
       <c r="D71">
-        <v>0.2005469569117527</v>
+        <v>0.01321221619751769</v>
       </c>
       <c r="E71">
-        <v>0.1286132636907966</v>
+        <v>-0.04497953596297597</v>
       </c>
       <c r="F71">
-        <v>-0.001807884716015746</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.039602578656071</v>
+      </c>
+      <c r="G71">
+        <v>0.0424020736078923</v>
+      </c>
+      <c r="H71">
+        <v>-0.005432335262601456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09589990373422526</v>
+        <v>0.05550999023758057</v>
       </c>
       <c r="C72">
-        <v>-0.03091142529493799</v>
+        <v>0.09871438701893438</v>
       </c>
       <c r="D72">
-        <v>-0.08758369904972595</v>
+        <v>0.01260842747844408</v>
       </c>
       <c r="E72">
-        <v>-0.07020832751344462</v>
+        <v>0.03383832010076666</v>
       </c>
       <c r="F72">
-        <v>0.1364212278033209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02415760743331641</v>
+      </c>
+      <c r="G72">
+        <v>-0.05183867577979665</v>
+      </c>
+      <c r="H72">
+        <v>0.06141075202062198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2093236725579397</v>
+        <v>0.3279500501139</v>
       </c>
       <c r="C73">
-        <v>-0.1358021155327354</v>
+        <v>0.1637414263263766</v>
       </c>
       <c r="D73">
-        <v>-0.01099243479064219</v>
+        <v>0.006965526025442525</v>
       </c>
       <c r="E73">
-        <v>0.08796667299103932</v>
+        <v>0.03875397937832167</v>
       </c>
       <c r="F73">
-        <v>0.1243097037452743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1645413717103652</v>
+      </c>
+      <c r="G73">
+        <v>-0.160591530665981</v>
+      </c>
+      <c r="H73">
+        <v>0.4704835688502185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1316192583907104</v>
+        <v>0.0990438462952451</v>
       </c>
       <c r="C74">
-        <v>-0.03347523714171628</v>
+        <v>0.1359191058671745</v>
       </c>
       <c r="D74">
-        <v>-0.03870816893236171</v>
+        <v>0.01596290435078327</v>
       </c>
       <c r="E74">
-        <v>-0.08048217290353829</v>
+        <v>0.04257008352478117</v>
       </c>
       <c r="F74">
-        <v>-0.0462805267337433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.01526819829179154</v>
+      </c>
+      <c r="G74">
+        <v>0.009629926915275052</v>
+      </c>
+      <c r="H74">
+        <v>-0.0642974236638114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2285416178621746</v>
+        <v>0.2146789755872028</v>
       </c>
       <c r="C75">
-        <v>-0.07392084284018732</v>
+        <v>0.2192851531830229</v>
       </c>
       <c r="D75">
-        <v>-0.03432865576026069</v>
+        <v>0.03796515166967143</v>
       </c>
       <c r="E75">
-        <v>-0.2039887601821453</v>
+        <v>0.05234113255530284</v>
       </c>
       <c r="F75">
-        <v>-0.04527970198120024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.01075129272084144</v>
+      </c>
+      <c r="G75">
+        <v>0.0022111728506768</v>
+      </c>
+      <c r="H75">
+        <v>-0.1972389922940186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2590361860338055</v>
+        <v>0.140125277527165</v>
       </c>
       <c r="C76">
-        <v>-0.06021453176435589</v>
+        <v>0.1859617722574801</v>
       </c>
       <c r="D76">
-        <v>-0.05632601784895306</v>
+        <v>0.02956201600688967</v>
       </c>
       <c r="E76">
-        <v>-0.2530543159386084</v>
+        <v>0.07219491182661941</v>
       </c>
       <c r="F76">
-        <v>-0.1054812808303674</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.01857166605053314</v>
+      </c>
+      <c r="G76">
+        <v>0.01307910950942049</v>
+      </c>
+      <c r="H76">
+        <v>-0.1556384585236078</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09347538744665473</v>
+        <v>0.04489053474675041</v>
       </c>
       <c r="C77">
-        <v>-0.03357236029143738</v>
+        <v>0.07872859611862681</v>
       </c>
       <c r="D77">
-        <v>-0.08152155436648863</v>
+        <v>-0.01120933067320096</v>
       </c>
       <c r="E77">
-        <v>0.07148273426840025</v>
+        <v>-0.02896010779479465</v>
       </c>
       <c r="F77">
-        <v>0.06045257616674379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01757237335555728</v>
+      </c>
+      <c r="G77">
+        <v>0.02296394166904262</v>
+      </c>
+      <c r="H77">
+        <v>0.003075536963390288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03818396869658108</v>
+        <v>0.02395471260641676</v>
       </c>
       <c r="C78">
-        <v>0.0009186473080517183</v>
+        <v>0.06518360524462107</v>
       </c>
       <c r="D78">
-        <v>-0.07413992654572064</v>
+        <v>-0.004336525424994169</v>
       </c>
       <c r="E78">
-        <v>-0.002188626065191151</v>
+        <v>-0.0028352672760249</v>
       </c>
       <c r="F78">
-        <v>0.0717058206559799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.006516169408344152</v>
+      </c>
+      <c r="G78">
+        <v>-0.0282935268115152</v>
+      </c>
+      <c r="H78">
+        <v>0.06152603595276173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.3679938700043158</v>
+        <v>0.07392860685579322</v>
       </c>
       <c r="C80">
-        <v>0.9097619760949954</v>
+        <v>0.1064194837610819</v>
       </c>
       <c r="D80">
-        <v>0.005085103301711982</v>
+        <v>-0.01005043681016932</v>
       </c>
       <c r="E80">
-        <v>0.06794386260416278</v>
+        <v>0.07900620834344625</v>
       </c>
       <c r="F80">
-        <v>0.03205833123434049</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.9458347205090468</v>
+      </c>
+      <c r="G80">
+        <v>0.01784254354806724</v>
+      </c>
+      <c r="H80">
+        <v>0.1288416296795337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1871932252136706</v>
+        <v>0.1295412207357849</v>
       </c>
       <c r="C81">
-        <v>-0.05001904015154483</v>
+        <v>0.1371579519471194</v>
       </c>
       <c r="D81">
-        <v>-0.01135322791332767</v>
+        <v>0.02212752358622444</v>
       </c>
       <c r="E81">
-        <v>-0.1602610241918823</v>
+        <v>0.0315088996512077</v>
       </c>
       <c r="F81">
-        <v>-0.02385365447383131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01438788543892616</v>
+      </c>
+      <c r="G81">
+        <v>0.003883618425060327</v>
+      </c>
+      <c r="H81">
+        <v>-0.1177522190629685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.006174811900184305</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.004336144332471518</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0009617458678985714</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.0139492405173174</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.002576594263989321</v>
+      </c>
+      <c r="G82">
+        <v>-0.0009635736409314225</v>
+      </c>
+      <c r="H82">
+        <v>0.001018802797788343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03417537676244736</v>
+        <v>0.02058354056798036</v>
       </c>
       <c r="C83">
-        <v>-0.0001326965604667465</v>
+        <v>0.02202111869418389</v>
       </c>
       <c r="D83">
-        <v>-0.01979171853340918</v>
+        <v>-0.004277782671759294</v>
       </c>
       <c r="E83">
-        <v>0.03242523553507061</v>
+        <v>-0.01708557261588781</v>
       </c>
       <c r="F83">
-        <v>0.0449085068761373</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02246365031336135</v>
+      </c>
+      <c r="G83">
+        <v>-0.01346562811325766</v>
+      </c>
+      <c r="H83">
+        <v>0.04036003648118634</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2363779968042262</v>
+        <v>0.2106651179566163</v>
       </c>
       <c r="C85">
-        <v>-0.07877649171934559</v>
+        <v>0.2284188931065694</v>
       </c>
       <c r="D85">
-        <v>-0.05847269390336914</v>
+        <v>0.02610719695603749</v>
       </c>
       <c r="E85">
-        <v>-0.2231304661805596</v>
+        <v>0.08752051233586</v>
       </c>
       <c r="F85">
-        <v>-0.07282321541555163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.04685317054278733</v>
+      </c>
+      <c r="G85">
+        <v>0.002560384301138854</v>
+      </c>
+      <c r="H85">
+        <v>-0.1643325061661974</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007326200751326721</v>
+        <v>0.006253902612905914</v>
       </c>
       <c r="C86">
-        <v>0.003724934149435264</v>
+        <v>0.03010176825820352</v>
       </c>
       <c r="D86">
-        <v>-0.04350075589782641</v>
+        <v>-0.008037355079779443</v>
       </c>
       <c r="E86">
-        <v>0.006199475062082636</v>
+        <v>-0.007461559980635139</v>
       </c>
       <c r="F86">
-        <v>0.08099250317348923</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02939023499262481</v>
+      </c>
+      <c r="G86">
+        <v>0.00080784418323738</v>
+      </c>
+      <c r="H86">
+        <v>0.04528662553418986</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02636693069867942</v>
+        <v>-0.0002418588129585237</v>
       </c>
       <c r="C87">
-        <v>-0.003489630394641005</v>
+        <v>0.03457911465778182</v>
       </c>
       <c r="D87">
-        <v>-0.04101853110503944</v>
+        <v>-0.01023655617223073</v>
       </c>
       <c r="E87">
-        <v>0.02208613209005676</v>
+        <v>-0.04017741617277922</v>
       </c>
       <c r="F87">
-        <v>0.08523531426399757</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02026679646761495</v>
+      </c>
+      <c r="G87">
+        <v>-0.02444085860213829</v>
+      </c>
+      <c r="H87">
+        <v>0.0672562454204081</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03661837560413896</v>
+        <v>0.04375371527229598</v>
       </c>
       <c r="C88">
-        <v>-0.0005990410777272434</v>
+        <v>0.02290610772848591</v>
       </c>
       <c r="D88">
-        <v>0.009233127757522899</v>
+        <v>-0.01838700924720023</v>
       </c>
       <c r="E88">
-        <v>-0.006022067340920186</v>
+        <v>0.006213022569987399</v>
       </c>
       <c r="F88">
-        <v>-0.00555156962942561</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.02280942093092655</v>
+      </c>
+      <c r="G88">
+        <v>-0.008845087563609837</v>
+      </c>
+      <c r="H88">
+        <v>-0.01233092955010959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1464731782699372</v>
+        <v>0.3037334051318456</v>
       </c>
       <c r="C89">
-        <v>-0.07290721534205853</v>
+        <v>-0.3081285776604906</v>
       </c>
       <c r="D89">
-        <v>0.3602385112190171</v>
+        <v>0.02205341528085032</v>
       </c>
       <c r="E89">
-        <v>0.09410252654537493</v>
+        <v>-0.0234742088034855</v>
       </c>
       <c r="F89">
-        <v>0.03645734268846032</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.0139795561309197</v>
+      </c>
+      <c r="G89">
+        <v>0.02726494140880763</v>
+      </c>
+      <c r="H89">
+        <v>-0.03030479827164052</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09666782957211986</v>
+        <v>0.2508364184252493</v>
       </c>
       <c r="C90">
-        <v>-0.05399872491856214</v>
+        <v>-0.2762851696731056</v>
       </c>
       <c r="D90">
-        <v>0.3230174067140293</v>
+        <v>0.02051941538861476</v>
       </c>
       <c r="E90">
-        <v>0.1077629143535785</v>
+        <v>-0.03470431438776123</v>
       </c>
       <c r="F90">
-        <v>-0.01690721256459722</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01151914336059081</v>
+      </c>
+      <c r="G90">
+        <v>0.05083449006661887</v>
+      </c>
+      <c r="H90">
+        <v>-0.05633126680613541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2772614483916506</v>
+        <v>0.1891181620548746</v>
       </c>
       <c r="C91">
-        <v>-0.1003569841470053</v>
+        <v>0.1867283035945365</v>
       </c>
       <c r="D91">
-        <v>-0.07034322565380494</v>
+        <v>0.03334601570121049</v>
       </c>
       <c r="E91">
-        <v>-0.2258140408455434</v>
+        <v>0.06289988795031648</v>
       </c>
       <c r="F91">
-        <v>-0.1553616087917575</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.009025221863704032</v>
+      </c>
+      <c r="G91">
+        <v>0.03942748368603916</v>
+      </c>
+      <c r="H91">
+        <v>-0.1923828522913395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1968720290270516</v>
+        <v>0.2729474716696203</v>
       </c>
       <c r="C92">
-        <v>-0.08061352034997826</v>
+        <v>-0.197192938905193</v>
       </c>
       <c r="D92">
-        <v>0.3760099458373624</v>
+        <v>0.06323564761583439</v>
       </c>
       <c r="E92">
-        <v>0.007538554142337899</v>
+        <v>-0.03874157259887517</v>
       </c>
       <c r="F92">
-        <v>-0.02787370630159098</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.05182342612633536</v>
+      </c>
+      <c r="G92">
+        <v>0.0243898399154093</v>
+      </c>
+      <c r="H92">
+        <v>-0.127945620907868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1372892519681317</v>
+        <v>0.2912459298112053</v>
       </c>
       <c r="C93">
-        <v>-0.08753630536508332</v>
+        <v>-0.2627787520366887</v>
       </c>
       <c r="D93">
-        <v>0.3786242605310344</v>
+        <v>0.03031728285669034</v>
       </c>
       <c r="E93">
-        <v>0.1612335771652428</v>
+        <v>-0.04228923829960887</v>
       </c>
       <c r="F93">
-        <v>-0.04753188475482367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.001321774241611154</v>
+      </c>
+      <c r="G93">
+        <v>0.0438884263508904</v>
+      </c>
+      <c r="H93">
+        <v>-0.001248577117545239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2845931198626655</v>
+        <v>0.2408032281181215</v>
       </c>
       <c r="C94">
-        <v>-0.1242652537632637</v>
+        <v>0.2346139878322653</v>
       </c>
       <c r="D94">
-        <v>-0.01477334707340873</v>
+        <v>0.0238139847180021</v>
       </c>
       <c r="E94">
-        <v>-0.2932560549133589</v>
+        <v>0.08361472661041788</v>
       </c>
       <c r="F94">
-        <v>-0.03845760700699726</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.07337894669368619</v>
+      </c>
+      <c r="G94">
+        <v>-0.03086544677981518</v>
+      </c>
+      <c r="H94">
+        <v>-0.4500960947141099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05947907944440104</v>
+        <v>0.05138187841157567</v>
       </c>
       <c r="C95">
-        <v>-0.06823166003516418</v>
+        <v>0.09490064729307178</v>
       </c>
       <c r="D95">
-        <v>-0.02988723812103223</v>
+        <v>0.01191674647088321</v>
       </c>
       <c r="E95">
-        <v>0.003334211649313127</v>
+        <v>-0.02547442369321956</v>
       </c>
       <c r="F95">
-        <v>0.01816198212422982</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.06072814776291973</v>
+      </c>
+      <c r="G95">
+        <v>-0.001012967089715054</v>
+      </c>
+      <c r="H95">
+        <v>0.06391155099201547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1710831747114266</v>
+        <v>0.1932450464001222</v>
       </c>
       <c r="C98">
-        <v>-0.08750167438114195</v>
+        <v>0.07166472289969186</v>
       </c>
       <c r="D98">
-        <v>0.03622860951902544</v>
+        <v>0.03028122465452041</v>
       </c>
       <c r="E98">
-        <v>0.09490975293040022</v>
+        <v>-0.01423533781999698</v>
       </c>
       <c r="F98">
-        <v>0.1203215439673472</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.07472513410266865</v>
+      </c>
+      <c r="G98">
+        <v>-0.06641080485843497</v>
+      </c>
+      <c r="H98">
+        <v>0.301367784881561</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004880879686277175</v>
+        <v>0.002323419364519599</v>
       </c>
       <c r="C101">
-        <v>0.009562850978399743</v>
+        <v>0.01868046356584204</v>
       </c>
       <c r="D101">
-        <v>-0.03460505709886842</v>
+        <v>-0.007352704999543939</v>
       </c>
       <c r="E101">
-        <v>0.03004609555892282</v>
+        <v>-0.02884961756694333</v>
       </c>
       <c r="F101">
-        <v>0.1861762177906668</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02972124305747308</v>
+      </c>
+      <c r="G101">
+        <v>-0.02885769604719569</v>
+      </c>
+      <c r="H101">
+        <v>0.0008544293569703951</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1189761063310044</v>
+        <v>0.1063663468966</v>
       </c>
       <c r="C102">
-        <v>-0.03682085158949682</v>
+        <v>0.1071300050820505</v>
       </c>
       <c r="D102">
-        <v>-0.02439181156021896</v>
+        <v>0.005673751617679735</v>
       </c>
       <c r="E102">
-        <v>-0.1095624727381727</v>
+        <v>0.04759781343441215</v>
       </c>
       <c r="F102">
-        <v>-0.06477166471208345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.01400047744142229</v>
+      </c>
+      <c r="G102">
+        <v>-0.0003482700085872616</v>
+      </c>
+      <c r="H102">
+        <v>-0.07257899774845218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03947912581836908</v>
+        <v>0.008586928310483164</v>
       </c>
       <c r="C103">
-        <v>0.009358394133986392</v>
+        <v>0.01173221670018527</v>
       </c>
       <c r="D103">
-        <v>-0.01250108153505779</v>
+        <v>0.0004099768011095548</v>
       </c>
       <c r="E103">
-        <v>-0.03280348223501325</v>
+        <v>0.0003715685621499064</v>
       </c>
       <c r="F103">
-        <v>0.00539535585329425</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02016675178997189</v>
+      </c>
+      <c r="G103">
+        <v>0.001402143756085476</v>
+      </c>
+      <c r="H103">
+        <v>-0.01101355156418611</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.08931872975063451</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04183703884978257</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9810741581739377</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04459283934119287</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.009289817547739483</v>
+      </c>
+      <c r="G104">
+        <v>-0.1050440989244912</v>
+      </c>
+      <c r="H104">
+        <v>-0.07023135236714199</v>
       </c>
     </row>
   </sheetData>
